--- a/data/grid_search_results/final_IncDec_roberta.xlsx
+++ b/data/grid_search_results/final_IncDec_roberta.xlsx
@@ -501,28 +501,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>1.325413857187544</v>
+        <v>1.024728833574109</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6031074222686381</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G2" t="n">
-        <v>1.122818908792861</v>
+        <v>0.9910920346286934</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6524822695035462</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6519312869729437</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J2" t="n">
-        <v>2.31144837141037</v>
+        <v>0.4282492240269979</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01714626948038737</v>
+        <v>0.003222044308980306</v>
       </c>
     </row>
     <row r="3">
@@ -536,28 +536,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8439224788120815</v>
+        <v>1.048828810717152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.6194690265486725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6777131120704615</v>
+        <v>0.6002179336399842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7842722340678492</v>
+        <v>1.009856667317135</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6950354609929078</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="I3" t="n">
-        <v>0.686790780141844</v>
+        <v>0.6146118118797569</v>
       </c>
       <c r="J3" t="n">
-        <v>1.882230806350708</v>
+        <v>0.8931415875752767</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01750548680623372</v>
+        <v>0.003320213158925374</v>
       </c>
     </row>
     <row r="4">
@@ -571,28 +571,28 @@
         <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>1.086511884416853</v>
+        <v>1.085325191506242</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5089285714285714</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3433009298393914</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G4" t="n">
-        <v>1.083877678458572</v>
+        <v>1.083136325151148</v>
       </c>
       <c r="H4" t="n">
-        <v>0.524822695035461</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3612732970476661</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J4" t="n">
-        <v>1.452330362796783</v>
+        <v>0.4879497289657593</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01766014099121094</v>
+        <v>0.003181131680806478</v>
       </c>
     </row>
     <row r="5">
@@ -606,28 +606,28 @@
         <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>1.103512457438878</v>
+        <v>1.105692050098318</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0.2300884955752212</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.08607627172598205</v>
       </c>
       <c r="G5" t="n">
-        <v>1.10121713631542</v>
+        <v>1.106680331095843</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2695035460992908</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1144260866119894</v>
+        <v>0.07369800196528006</v>
       </c>
       <c r="J5" t="n">
-        <v>1.014665301640828</v>
+        <v>0.426538360118866</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01776824394861857</v>
+        <v>0.003366728623708089</v>
       </c>
     </row>
     <row r="6">
@@ -641,28 +641,28 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9512420381818499</v>
+        <v>1.024225584173625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5661248241300786</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8331253448276655</v>
+        <v>0.9888335802185704</v>
       </c>
       <c r="H6" t="n">
-        <v>0.624113475177305</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6219450684991851</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J6" t="n">
-        <v>1.783719925085703</v>
+        <v>0.4701176484425862</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01753042936325073</v>
+        <v>0.003351398309071859</v>
       </c>
     </row>
     <row r="7">
@@ -676,28 +676,28 @@
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>1.242790843759264</v>
+        <v>1.153171069326654</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.6460176991150443</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6824137116253021</v>
+        <v>0.6227857068958906</v>
       </c>
       <c r="G7" t="n">
-        <v>1.211240198595304</v>
+        <v>1.191070333333083</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6524822695035462</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.66443359634849</v>
+        <v>0.6210405288876112</v>
       </c>
       <c r="J7" t="n">
-        <v>2.589934400717417</v>
+        <v>0.8529361526171366</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01743186712265015</v>
+        <v>0.003361173470815023</v>
       </c>
     </row>
     <row r="8">
@@ -711,28 +711,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>1.08367725781032</v>
+        <v>1.088630970600432</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5089285714285714</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3433009298393914</v>
+        <v>0.3981003295876262</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0811008206496</v>
+        <v>1.086990579752855</v>
       </c>
       <c r="H8" t="n">
-        <v>0.524822695035461</v>
+        <v>0.5563380281690141</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3612732970476661</v>
+        <v>0.4426559356136821</v>
       </c>
       <c r="J8" t="n">
-        <v>1.307186734676361</v>
+        <v>0.4710366288820902</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01754368543624878</v>
+        <v>0.00351179838180542</v>
       </c>
     </row>
     <row r="9">
@@ -746,28 +746,28 @@
         <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>1.103092278753008</v>
+        <v>1.08972309964948</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0.4247787610619468</v>
       </c>
       <c r="G9" t="n">
-        <v>1.100767958248761</v>
+        <v>1.08827341946078</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2695035460992908</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1144260866119894</v>
+        <v>0.451279103190572</v>
       </c>
       <c r="J9" t="n">
-        <v>1.085133973757426</v>
+        <v>1.02446147998174</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01749337514241537</v>
+        <v>0.003519296646118164</v>
       </c>
     </row>
     <row r="10">
@@ -781,28 +781,28 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>1.053519023316247</v>
+        <v>1.031064632192122</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5089285714285714</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3433009298393914</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G10" t="n">
-        <v>1.045600868285971</v>
+        <v>0.999596185247663</v>
       </c>
       <c r="H10" t="n">
-        <v>0.524822695035461</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3612732970476661</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J10" t="n">
-        <v>1.276944168408712</v>
+        <v>0.5878513018290202</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01828996737798055</v>
+        <v>0.004474918047587077</v>
       </c>
     </row>
     <row r="11">
@@ -816,28 +816,28 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>1.383919153894697</v>
+        <v>1.306242187466242</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7232142857142857</v>
+        <v>0.6194690265486725</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7230961829176115</v>
+        <v>0.6002179336399842</v>
       </c>
       <c r="G11" t="n">
-        <v>1.580357711365882</v>
+        <v>1.298367779019853</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6312056737588653</v>
+        <v>0.5845070422535211</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6330380932406053</v>
+        <v>0.5638800937327347</v>
       </c>
       <c r="J11" t="n">
-        <v>3.420347074667613</v>
+        <v>1.002969110012054</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01831915775934855</v>
+        <v>0.003783472379048665</v>
       </c>
     </row>
     <row r="12">
@@ -851,28 +851,28 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>1.087390695299421</v>
+        <v>1.077395795720868</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5089285714285714</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3433009298393914</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G12" t="n">
-        <v>1.084434078094807</v>
+        <v>1.073830114284032</v>
       </c>
       <c r="H12" t="n">
-        <v>0.524822695035461</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3732127992541537</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J12" t="n">
-        <v>1.280680680274963</v>
+        <v>0.5888172268867493</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01838293472925822</v>
+        <v>0.003806169827779134</v>
       </c>
     </row>
     <row r="13">
@@ -886,28 +886,28 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>1.089397345270429</v>
+        <v>1.089567125371072</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4094092182327477</v>
+        <v>0.4257799527242181</v>
       </c>
       <c r="G13" t="n">
-        <v>1.086827920683732</v>
+        <v>1.088101848750047</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5390070921985816</v>
+        <v>0.5563380281690141</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4393151579672803</v>
+        <v>0.4642899833887728</v>
       </c>
       <c r="J13" t="n">
-        <v>2.921826541423798</v>
+        <v>0.972937802473704</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01840262413024902</v>
+        <v>0.003795897960662842</v>
       </c>
     </row>
     <row r="14">
@@ -921,28 +921,28 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1.058845356106758</v>
+        <v>1.028198101351746</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5089285714285714</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3433009298393914</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G14" t="n">
-        <v>1.05740292402024</v>
+        <v>0.9917757192128142</v>
       </c>
       <c r="H14" t="n">
-        <v>0.524822695035461</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3612732970476661</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J14" t="n">
-        <v>1.614599061012268</v>
+        <v>1.122388482093811</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01959894895553589</v>
+        <v>0.006186215082804362</v>
       </c>
     </row>
     <row r="15">
@@ -956,28 +956,28 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9922902159160003</v>
+        <v>1.486067290368399</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6696428571428571</v>
+        <v>0.672566371681416</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6745592444744987</v>
+        <v>0.6452555362662489</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9457002026590366</v>
+        <v>1.510756316581662</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7163120567375887</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7148578579619511</v>
+        <v>0.5670656395611886</v>
       </c>
       <c r="J15" t="n">
-        <v>2.913434354464213</v>
+        <v>1.863251984119415</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01958013375600179</v>
+        <v>0.007038672765096028</v>
       </c>
     </row>
     <row r="16">
@@ -991,28 +991,28 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8843046982905695</v>
+        <v>1.059392198524644</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7053571428571429</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7063349142955653</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9494158954273725</v>
+        <v>1.051802211244341</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6524822695035462</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6530173642635648</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J16" t="n">
-        <v>6.784485570589701</v>
+        <v>1.128208482265472</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01965511242548625</v>
+        <v>0.006976425647735596</v>
       </c>
     </row>
     <row r="17">
@@ -1026,28 +1026,28 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1.089639063392367</v>
+        <v>1.089257606362874</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5267857142857143</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4224785076714244</v>
+        <v>0.4035968147925341</v>
       </c>
       <c r="G17" t="n">
-        <v>1.087079459893788</v>
+        <v>1.087743844784481</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5319148936170213</v>
+        <v>0.5492957746478874</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4393172751978764</v>
+        <v>0.4392790308283266</v>
       </c>
       <c r="J17" t="n">
-        <v>3.081403227647145</v>
+        <v>1.573948164780935</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01965463558832804</v>
+        <v>0.006188531716664632</v>
       </c>
     </row>
     <row r="18">
@@ -1061,28 +1061,28 @@
         <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>1.055289115224566</v>
+        <v>0.9584248693643418</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5575221238938053</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3737541528239203</v>
+        <v>0.5082529332180008</v>
       </c>
       <c r="G18" t="n">
-        <v>1.070032028441734</v>
+        <v>1.013868659314975</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.4859154929577465</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2834111745372773</v>
+        <v>0.4345320957816444</v>
       </c>
       <c r="J18" t="n">
-        <v>1.575674319267273</v>
+        <v>0.5956920941670736</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01057028770446777</v>
+        <v>0.003588791688283285</v>
       </c>
     </row>
     <row r="19">
@@ -1096,28 +1096,28 @@
         <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9514853187969753</v>
+        <v>1.279996059637154</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6696428571428571</v>
+        <v>0.6371681415929203</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6800587845669812</v>
+        <v>0.637353796645832</v>
       </c>
       <c r="G19" t="n">
-        <v>1.18090601719863</v>
+        <v>1.237353648098422</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4822695035460993</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4850947511142108</v>
+        <v>0.6181814590206033</v>
       </c>
       <c r="J19" t="n">
-        <v>3.27373693784078</v>
+        <v>0.9953452388445536</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01048703591028849</v>
+        <v>0.003544473648071289</v>
       </c>
     </row>
     <row r="20">
@@ -1131,28 +1131,28 @@
         <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>1.081761292048863</v>
+        <v>1.096928268407298</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3737541528239203</v>
+        <v>0.3892377961747074</v>
       </c>
       <c r="G20" t="n">
-        <v>1.082600919067437</v>
+        <v>1.067854051858606</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2834111745372773</v>
+        <v>0.4059191751818098</v>
       </c>
       <c r="J20" t="n">
-        <v>1.807061302661896</v>
+        <v>0.4280568559964498</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01056208610534668</v>
+        <v>0.0035698135693868</v>
       </c>
     </row>
     <row r="21">
@@ -1166,28 +1166,28 @@
         <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>1.08632504940033</v>
+        <v>1.097131735455673</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4045042259327974</v>
+        <v>0.3930209947909063</v>
       </c>
       <c r="G21" t="n">
-        <v>1.084618700311539</v>
+        <v>1.067969773856687</v>
       </c>
       <c r="H21" t="n">
-        <v>0.375886524822695</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3244193203230785</v>
+        <v>0.4026032054395338</v>
       </c>
       <c r="J21" t="n">
-        <v>3.991559668382009</v>
+        <v>0.9689361214637756</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01050908168156942</v>
+        <v>0.003522678216298421</v>
       </c>
     </row>
     <row r="22">
@@ -1201,28 +1201,28 @@
         <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>1.024487180369241</v>
+        <v>1.003367107526391</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3737541528239203</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G22" t="n">
-        <v>1.071180846674223</v>
+        <v>1.006634578738414</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2834111745372773</v>
+        <v>0.4227867203219316</v>
       </c>
       <c r="J22" t="n">
-        <v>1.574255816141764</v>
+        <v>0.4706549406051636</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01071539322535197</v>
+        <v>0.003717891375223796</v>
       </c>
     </row>
     <row r="23">
@@ -1236,28 +1236,28 @@
         <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9012347800391061</v>
+        <v>1.309756679872496</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6607142857142857</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6632189239332096</v>
+        <v>0.6537901723334886</v>
       </c>
       <c r="G23" t="n">
-        <v>1.11397567201168</v>
+        <v>1.255310821701104</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5319148936170213</v>
+        <v>0.6126760563380281</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5242001041805164</v>
+        <v>0.6063039936141459</v>
       </c>
       <c r="J23" t="n">
-        <v>2.51889058748881</v>
+        <v>0.8793748577435812</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0106961727142334</v>
+        <v>0.003734620412190755</v>
       </c>
     </row>
     <row r="24">
@@ -1271,28 +1271,28 @@
         <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>1.081767950739179</v>
+        <v>1.089678603990943</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3737541528239203</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G24" t="n">
-        <v>1.08263598435314</v>
+        <v>1.060836844041314</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2834111745372773</v>
+        <v>0.4227867203219316</v>
       </c>
       <c r="J24" t="n">
-        <v>1.573917468388875</v>
+        <v>0.4721588253974914</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01072482665379842</v>
+        <v>0.003709777196248372</v>
       </c>
     </row>
     <row r="25">
@@ -1306,28 +1306,28 @@
         <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>1.086326701300485</v>
+        <v>1.096693679294755</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.5221238938053098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4054945054945054</v>
+        <v>0.3989746612581728</v>
       </c>
       <c r="G25" t="n">
-        <v>1.084565220149696</v>
+        <v>1.067636904582171</v>
       </c>
       <c r="H25" t="n">
-        <v>0.375886524822695</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="I25" t="n">
-        <v>0.324168451267892</v>
+        <v>0.3981764986051575</v>
       </c>
       <c r="J25" t="n">
-        <v>2.999511790275574</v>
+        <v>0.808657189210256</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01067418257395427</v>
+        <v>0.003912655512491862</v>
       </c>
     </row>
     <row r="26">
@@ -1341,28 +1341,28 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>1.056048163345882</v>
+        <v>1.007127403158002</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3737541528239203</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G26" t="n">
-        <v>1.085921402095903</v>
+        <v>0.9934787716664059</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2834111745372773</v>
+        <v>0.4227867203219316</v>
       </c>
       <c r="J26" t="n">
-        <v>1.728383175532023</v>
+        <v>0.5887294928232829</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01118808190027873</v>
+        <v>0.004025709629058838</v>
       </c>
     </row>
     <row r="27">
@@ -1376,28 +1376,28 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>1.513918293373925</v>
+        <v>1.4055031822846</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6964285714285714</v>
+        <v>0.6371681415929203</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7037387211798188</v>
+        <v>0.628997340383428</v>
       </c>
       <c r="G27" t="n">
-        <v>2.048683967150695</v>
+        <v>1.371666247995806</v>
       </c>
       <c r="H27" t="n">
-        <v>0.524822695035461</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5273554117587883</v>
+        <v>0.6353599959225777</v>
       </c>
       <c r="J27" t="n">
-        <v>4.196221844355265</v>
+        <v>1.069330493609111</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01121385892232259</v>
+        <v>0.00456860065460205</v>
       </c>
     </row>
     <row r="28">
@@ -1411,28 +1411,28 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>1.077744705336434</v>
+        <v>1.080685959453076</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3737541528239203</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G28" t="n">
-        <v>1.080855858241413</v>
+        <v>1.053903116306788</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2834111745372773</v>
+        <v>0.4227867203219316</v>
       </c>
       <c r="J28" t="n">
-        <v>1.736262317498525</v>
+        <v>0.587067965666453</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01117573181788127</v>
+        <v>0.00402685801188151</v>
       </c>
     </row>
     <row r="29">
@@ -1446,28 +1446,28 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>1.086201633725848</v>
+        <v>1.096197443725788</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4910714285714285</v>
+        <v>0.5398230088495575</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4245039682539683</v>
+        <v>0.4006486011103171</v>
       </c>
       <c r="G29" t="n">
-        <v>1.084543157131114</v>
+        <v>1.067193937973237</v>
       </c>
       <c r="H29" t="n">
-        <v>0.375886524822695</v>
+        <v>0.528169014084507</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3238358292693453</v>
+        <v>0.4086472322305929</v>
       </c>
       <c r="J29" t="n">
-        <v>2.759548918406169</v>
+        <v>0.8412743846575419</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01124527851740519</v>
+        <v>0.004352569580078125</v>
       </c>
     </row>
     <row r="30">
@@ -1481,28 +1481,28 @@
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>1.040857048971312</v>
+        <v>0.9954237136165652</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3737541528239203</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G30" t="n">
-        <v>1.080551476766032</v>
+        <v>0.9972896634692877</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2834111745372773</v>
+        <v>0.4227867203219316</v>
       </c>
       <c r="J30" t="n">
-        <v>2.053821082909902</v>
+        <v>1.12620944182078</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01191133260726929</v>
+        <v>0.006620713075002034</v>
       </c>
     </row>
     <row r="31">
@@ -1516,28 +1516,28 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8737534316522735</v>
+        <v>1.093330695664724</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6696428571428571</v>
+        <v>0.6283185840707964</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6770804345696481</v>
+        <v>0.6300951619085712</v>
       </c>
       <c r="G31" t="n">
-        <v>1.111380420255323</v>
+        <v>1.130006202089954</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5177304964539007</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="I31" t="n">
-        <v>0.518100432296456</v>
+        <v>0.6615147840686504</v>
       </c>
       <c r="J31" t="n">
-        <v>3.171531101067861</v>
+        <v>1.5750679175059</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01198312838872274</v>
+        <v>0.006169454256693522</v>
       </c>
     </row>
     <row r="32">
@@ -1551,28 +1551,28 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8687198534607887</v>
+        <v>1.044454854937781</v>
       </c>
       <c r="E32" t="n">
-        <v>0.625</v>
+        <v>0.6017699115044248</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6282703169855147</v>
+        <v>0.6036255969121395</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9712396090757762</v>
+        <v>1.033505681325013</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5065944703159806</v>
+        <v>0.5921432332167834</v>
       </c>
       <c r="J32" t="n">
-        <v>4.341803467273712</v>
+        <v>3.015296391646067</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01193113327026367</v>
+        <v>0.00662162701288859</v>
       </c>
     </row>
     <row r="33">
@@ -1586,28 +1586,28 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>1.084746135132653</v>
+        <v>1.094105728959615</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3923513543891199</v>
+        <v>0.3683052841577574</v>
       </c>
       <c r="G33" t="n">
-        <v>1.08388902616839</v>
+        <v>1.065199532978971</v>
       </c>
       <c r="H33" t="n">
-        <v>0.425531914893617</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2997272231314785</v>
+        <v>0.4227867203219316</v>
       </c>
       <c r="J33" t="n">
-        <v>3.006442888577779</v>
+        <v>1.435105629762014</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01193612416585286</v>
+        <v>0.007020167509714762</v>
       </c>
     </row>
     <row r="34">
@@ -1621,28 +1621,28 @@
         <v>32</v>
       </c>
       <c r="D34" t="n">
-        <v>1.255555544580732</v>
+        <v>0.9398015257531562</v>
       </c>
       <c r="E34" t="n">
-        <v>0.625</v>
+        <v>0.6106194690265486</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6208929104557184</v>
+        <v>0.4629971798113391</v>
       </c>
       <c r="G34" t="n">
-        <v>1.340442057196976</v>
+        <v>0.9791770955206642</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5905434648911163</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J34" t="n">
-        <v>3.894045853614807</v>
+        <v>0.2776244521141052</v>
       </c>
       <c r="K34" t="n">
-        <v>0.009836928049723307</v>
+        <v>0.005357925097147624</v>
       </c>
     </row>
     <row r="35">
@@ -1656,28 +1656,28 @@
         <v>32</v>
       </c>
       <c r="D35" t="n">
-        <v>1.195815665381295</v>
+        <v>0.9134329272582468</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6472641755565862</v>
+        <v>0.653779325140326</v>
       </c>
       <c r="G35" t="n">
-        <v>1.252989588054359</v>
+        <v>0.9986474631537854</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6028368794326241</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6038387455544627</v>
+        <v>0.5806071862409891</v>
       </c>
       <c r="J35" t="n">
-        <v>3.508904683589935</v>
+        <v>0.5490565617879232</v>
       </c>
       <c r="K35" t="n">
-        <v>0.009848054250081379</v>
+        <v>0.005571027596791585</v>
       </c>
     </row>
     <row r="36">
@@ -1691,28 +1691,28 @@
         <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>1.082650661468506</v>
+        <v>1.065295255289669</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5267857142857143</v>
+        <v>0.6017699115044248</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4125909918107371</v>
+        <v>0.4749376827942795</v>
       </c>
       <c r="G36" t="n">
-        <v>1.083480429142079</v>
+        <v>1.066833484340721</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4964539007092199</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3989534195436735</v>
+        <v>0.4364555632161267</v>
       </c>
       <c r="J36" t="n">
-        <v>2.408409794171651</v>
+        <v>0.3891302665074666</v>
       </c>
       <c r="K36" t="n">
-        <v>0.009865514437357585</v>
+        <v>0.005658074220021566</v>
       </c>
     </row>
     <row r="37">
@@ -1726,28 +1726,28 @@
         <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>1.131018485341753</v>
+        <v>1.14589877255195</v>
       </c>
       <c r="E37" t="n">
-        <v>0.25</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1</v>
+        <v>0.08015903552648455</v>
       </c>
       <c r="G37" t="n">
-        <v>1.119686617918894</v>
+        <v>1.135165506685284</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3049645390070922</v>
+        <v>0.2605633802816901</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1425377736663583</v>
+        <v>0.10771893933433</v>
       </c>
       <c r="J37" t="n">
-        <v>1.51573349237442</v>
+        <v>0.2755098501841227</v>
       </c>
       <c r="K37" t="n">
-        <v>0.009921725591023762</v>
+        <v>0.005588086446126302</v>
       </c>
     </row>
     <row r="38">
@@ -1761,28 +1761,28 @@
         <v>16</v>
       </c>
       <c r="D38" t="n">
-        <v>1.035342267581395</v>
+        <v>0.941650481350654</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5089285714285714</v>
+        <v>0.6106194690265486</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3433009298393914</v>
+        <v>0.4629971798113391</v>
       </c>
       <c r="G38" t="n">
-        <v>1.070830417017565</v>
+        <v>0.9749419269427447</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4609929078014184</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2909178544377883</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J38" t="n">
-        <v>1.574551530679067</v>
+        <v>0.3268423795700073</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01010857025782267</v>
+        <v>0.005921673774719238</v>
       </c>
     </row>
     <row r="39">
@@ -1796,28 +1796,28 @@
         <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9128813147544861</v>
+        <v>0.790943675600322</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6517857142857143</v>
+        <v>0.6460176991150443</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6467227215885145</v>
+        <v>0.6523856674299152</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9663260422699841</v>
+        <v>0.9355482811659155</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6099290780141844</v>
+        <v>0.5563380281690141</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6100542911429142</v>
+        <v>0.5672926447574335</v>
       </c>
       <c r="J39" t="n">
-        <v>2.626324804623922</v>
+        <v>0.5107333103815714</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0100574533144633</v>
+        <v>0.005935939153035482</v>
       </c>
     </row>
     <row r="40">
@@ -1831,28 +1831,28 @@
         <v>16</v>
       </c>
       <c r="D40" t="n">
-        <v>1.087157198360988</v>
+        <v>1.037128632047535</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3839285714285715</v>
+        <v>0.6106194690265486</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3414513913505849</v>
+        <v>0.4629971798113391</v>
       </c>
       <c r="G40" t="n">
-        <v>1.087080602950238</v>
+        <v>1.044952585663594</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3971631205673759</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3269637044111291</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J40" t="n">
-        <v>2.055033314228058</v>
+        <v>0.4208908796310425</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01008387804031372</v>
+        <v>0.005731598536173502</v>
       </c>
     </row>
     <row r="41">
@@ -1866,28 +1866,28 @@
         <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>1.130471416882106</v>
+        <v>1.144641664703335</v>
       </c>
       <c r="E41" t="n">
-        <v>0.25</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1</v>
+        <v>0.08015903552648455</v>
       </c>
       <c r="G41" t="n">
-        <v>1.119269882533567</v>
+        <v>1.134081592022533</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3049645390070922</v>
+        <v>0.2605633802816901</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1425377736663583</v>
+        <v>0.10771893933433</v>
       </c>
       <c r="J41" t="n">
-        <v>1.574329129854838</v>
+        <v>0.3286967158317566</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01010022163391113</v>
+        <v>0.005718819300333659</v>
       </c>
     </row>
     <row r="42">
@@ -1901,28 +1901,28 @@
         <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>1.036591904503959</v>
+        <v>0.9460964255628332</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5089285714285714</v>
+        <v>0.6106194690265486</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3433009298393914</v>
+        <v>0.4629971798113391</v>
       </c>
       <c r="G42" t="n">
-        <v>1.07302470156487</v>
+        <v>0.980868462105872</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4609929078014184</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2909178544377883</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J42" t="n">
-        <v>1.741415063540141</v>
+        <v>0.566881533463796</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01112127701441447</v>
+        <v>0.006361031532287597</v>
       </c>
     </row>
     <row r="43">
@@ -1936,28 +1936,28 @@
         <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>1.214768622602735</v>
+        <v>0.785029409206019</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6387499999999999</v>
+        <v>0.6447240629339578</v>
       </c>
       <c r="G43" t="n">
-        <v>1.188473628345111</v>
+        <v>0.8764757463629816</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6312056737588653</v>
+        <v>0.6267605633802817</v>
       </c>
       <c r="I43" t="n">
-        <v>0.629744268398876</v>
+        <v>0.6168212604461677</v>
       </c>
       <c r="J43" t="n">
-        <v>3.397791989644368</v>
+        <v>0.7259301702181499</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01110126177469889</v>
+        <v>0.006152876218159993</v>
       </c>
     </row>
     <row r="44">
@@ -1971,28 +1971,28 @@
         <v>8</v>
       </c>
       <c r="D44" t="n">
-        <v>1.080217608383724</v>
+        <v>1.019335430807772</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5</v>
+        <v>0.6106194690265486</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3392857142857143</v>
+        <v>0.4629971798113391</v>
       </c>
       <c r="G44" t="n">
-        <v>1.081940125911794</v>
+        <v>1.031213962695968</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4680851063829787</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3061989904231731</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J44" t="n">
-        <v>2.05167692899704</v>
+        <v>0.6536911010742188</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01111238797505697</v>
+        <v>0.006287793318430583</v>
       </c>
     </row>
     <row r="45">
@@ -2006,28 +2006,28 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>1.129547085080828</v>
+        <v>1.142922780155081</v>
       </c>
       <c r="E45" t="n">
-        <v>0.25</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1</v>
+        <v>0.08015903552648455</v>
       </c>
       <c r="G45" t="n">
-        <v>1.118599680298609</v>
+        <v>1.132588161549098</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3049645390070922</v>
+        <v>0.2605633802816901</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1425377736663583</v>
+        <v>0.10771893933433</v>
       </c>
       <c r="J45" t="n">
-        <v>1.739714618523916</v>
+        <v>0.5710761984189351</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01113183498382568</v>
+        <v>0.006058307488759359</v>
       </c>
     </row>
     <row r="46">
@@ -2041,28 +2041,28 @@
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>1.038871079683304</v>
+        <v>0.9590085713209304</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5089285714285714</v>
+        <v>0.6106194690265486</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3433009298393914</v>
+        <v>0.4629971798113391</v>
       </c>
       <c r="G46" t="n">
-        <v>1.070716014145114</v>
+        <v>0.9895497913091955</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4609929078014184</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2909178544377883</v>
+        <v>0.4060398426595609</v>
       </c>
       <c r="J46" t="n">
-        <v>2.051282827059428</v>
+        <v>1.10995788971583</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01162917613983154</v>
+        <v>0.006997851530710856</v>
       </c>
     </row>
     <row r="47">
@@ -2076,28 +2076,28 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>1.082922579986709</v>
+        <v>1.62571197829881</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6607142857142857</v>
+        <v>0.6814159292035398</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6666402805141196</v>
+        <v>0.6605774150168454</v>
       </c>
       <c r="G47" t="n">
-        <v>1.055344843272622</v>
+        <v>1.823575734816701</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6453900709219859</v>
+        <v>0.6549295774647887</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6471204640677906</v>
+        <v>0.6327829686029733</v>
       </c>
       <c r="J47" t="n">
-        <v>3.25114176273346</v>
+        <v>2.206045520305634</v>
       </c>
       <c r="K47" t="n">
-        <v>0.01174855629603068</v>
+        <v>0.007446595033009847</v>
       </c>
     </row>
     <row r="48">
@@ -2111,28 +2111,28 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9226502126881054</v>
+        <v>0.8296217785208626</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.672566371681416</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5985389610389611</v>
+        <v>0.5969371817356606</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9405654743842199</v>
+        <v>0.8947512910399639</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6028368794326241</v>
+        <v>0.5704225352112676</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6027975388533613</v>
+        <v>0.4975089920604593</v>
       </c>
       <c r="J48" t="n">
-        <v>5.744011028607686</v>
+        <v>2.232155795892079</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01172697941462199</v>
+        <v>0.006972885131835938</v>
       </c>
     </row>
     <row r="49">
@@ -2146,28 +2146,28 @@
         <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>1.128191581794194</v>
+        <v>1.064248965904776</v>
       </c>
       <c r="E49" t="n">
-        <v>0.25</v>
+        <v>0.6017699115044248</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1</v>
+        <v>0.4791769392468793</v>
       </c>
       <c r="G49" t="n">
-        <v>1.117555383249377</v>
+        <v>1.0662416505142</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3049645390070922</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1425377736663583</v>
+        <v>0.4364555632161267</v>
       </c>
       <c r="J49" t="n">
-        <v>2.250224773089091</v>
+        <v>2.223493707180023</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01175793806711833</v>
+        <v>0.006974196434020996</v>
       </c>
     </row>
   </sheetData>
